--- a/modified_data.xlsx
+++ b/modified_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="20">
   <si>
     <t>Suspected_Cases</t>
   </si>
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L363"/>
+  <dimension ref="A1:L398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14232,6 +14232,1336 @@
         <v>4112</v>
       </c>
     </row>
+    <row r="364" spans="1:12">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>1958</v>
+      </c>
+      <c r="C364">
+        <v>66</v>
+      </c>
+      <c r="D364">
+        <v>1958</v>
+      </c>
+      <c r="E364" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F364">
+        <v>37</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+      <c r="I364">
+        <v>132</v>
+      </c>
+      <c r="J364" t="s">
+        <v>17</v>
+      </c>
+      <c r="K364">
+        <v>29</v>
+      </c>
+      <c r="L364">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>14187</v>
+      </c>
+      <c r="C365">
+        <v>978</v>
+      </c>
+      <c r="D365">
+        <v>8820</v>
+      </c>
+      <c r="E365" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F365">
+        <v>180</v>
+      </c>
+      <c r="G365">
+        <v>14</v>
+      </c>
+      <c r="H365">
+        <v>696</v>
+      </c>
+      <c r="I365">
+        <v>901</v>
+      </c>
+      <c r="J365" t="s">
+        <v>16</v>
+      </c>
+      <c r="K365">
+        <v>88</v>
+      </c>
+      <c r="L365">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>4176</v>
+      </c>
+      <c r="C366">
+        <v>333</v>
+      </c>
+      <c r="D366">
+        <v>3791</v>
+      </c>
+      <c r="E366" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F366">
+        <v>228</v>
+      </c>
+      <c r="G366">
+        <v>3</v>
+      </c>
+      <c r="H366">
+        <v>92</v>
+      </c>
+      <c r="I366">
+        <v>243</v>
+      </c>
+      <c r="J366" t="s">
+        <v>18</v>
+      </c>
+      <c r="K366">
+        <v>10</v>
+      </c>
+      <c r="L366">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>10435</v>
+      </c>
+      <c r="C367">
+        <v>313</v>
+      </c>
+      <c r="D367">
+        <v>10435</v>
+      </c>
+      <c r="E367" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F367">
+        <v>44</v>
+      </c>
+      <c r="G367">
+        <v>4</v>
+      </c>
+      <c r="H367">
+        <v>244</v>
+      </c>
+      <c r="I367">
+        <v>730</v>
+      </c>
+      <c r="J367" t="s">
+        <v>11</v>
+      </c>
+      <c r="K367">
+        <v>21</v>
+      </c>
+      <c r="L367">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>16443</v>
+      </c>
+      <c r="C368">
+        <v>2313</v>
+      </c>
+      <c r="D368">
+        <v>17452</v>
+      </c>
+      <c r="E368" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F368">
+        <v>614</v>
+      </c>
+      <c r="G368">
+        <v>122</v>
+      </c>
+      <c r="H368">
+        <v>1001</v>
+      </c>
+      <c r="I368">
+        <v>903</v>
+      </c>
+      <c r="J368" t="s">
+        <v>14</v>
+      </c>
+      <c r="K368">
+        <v>576</v>
+      </c>
+      <c r="L368">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>49573</v>
+      </c>
+      <c r="C369">
+        <v>6061</v>
+      </c>
+      <c r="D369">
+        <v>79914</v>
+      </c>
+      <c r="E369" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F369">
+        <v>1780</v>
+      </c>
+      <c r="G369">
+        <v>103</v>
+      </c>
+      <c r="H369">
+        <v>2581</v>
+      </c>
+      <c r="I369">
+        <v>2422</v>
+      </c>
+      <c r="J369" t="s">
+        <v>12</v>
+      </c>
+      <c r="K369">
+        <v>1597</v>
+      </c>
+      <c r="L369">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>51790</v>
+      </c>
+      <c r="C370">
+        <v>5695</v>
+      </c>
+      <c r="D370">
+        <v>51790</v>
+      </c>
+      <c r="E370" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F370">
+        <v>1169</v>
+      </c>
+      <c r="G370">
+        <v>100</v>
+      </c>
+      <c r="H370">
+        <v>3187</v>
+      </c>
+      <c r="I370">
+        <v>3729</v>
+      </c>
+      <c r="J370" t="s">
+        <v>13</v>
+      </c>
+      <c r="K370">
+        <v>1239</v>
+      </c>
+      <c r="L370">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>2038</v>
+      </c>
+      <c r="C371">
+        <v>66</v>
+      </c>
+      <c r="D371">
+        <v>2038</v>
+      </c>
+      <c r="E371" s="2">
+        <v>43952</v>
+      </c>
+      <c r="F371">
+        <v>43</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+      <c r="I371">
+        <v>80</v>
+      </c>
+      <c r="J371" t="s">
+        <v>17</v>
+      </c>
+      <c r="K371">
+        <v>23</v>
+      </c>
+      <c r="L371">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>15335</v>
+      </c>
+      <c r="C372">
+        <v>1049</v>
+      </c>
+      <c r="D372">
+        <v>9435</v>
+      </c>
+      <c r="E372" s="2">
+        <v>43952</v>
+      </c>
+      <c r="F372">
+        <v>183</v>
+      </c>
+      <c r="G372">
+        <v>14</v>
+      </c>
+      <c r="H372">
+        <v>762</v>
+      </c>
+      <c r="I372">
+        <v>1148</v>
+      </c>
+      <c r="J372" t="s">
+        <v>16</v>
+      </c>
+      <c r="K372">
+        <v>90</v>
+      </c>
+      <c r="L372">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>4370</v>
+      </c>
+      <c r="C373">
+        <v>339</v>
+      </c>
+      <c r="D373">
+        <v>3932</v>
+      </c>
+      <c r="E373" s="2">
+        <v>43952</v>
+      </c>
+      <c r="F373">
+        <v>248</v>
+      </c>
+      <c r="G373">
+        <v>3</v>
+      </c>
+      <c r="H373">
+        <v>78</v>
+      </c>
+      <c r="I373">
+        <v>194</v>
+      </c>
+      <c r="J373" t="s">
+        <v>18</v>
+      </c>
+      <c r="K373">
+        <v>10</v>
+      </c>
+      <c r="L373">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>11194</v>
+      </c>
+      <c r="C374">
+        <v>343</v>
+      </c>
+      <c r="D374">
+        <v>11194</v>
+      </c>
+      <c r="E374" s="2">
+        <v>43952</v>
+      </c>
+      <c r="F374">
+        <v>44</v>
+      </c>
+      <c r="G374">
+        <v>4</v>
+      </c>
+      <c r="H374">
+        <v>277</v>
+      </c>
+      <c r="I374">
+        <v>759</v>
+      </c>
+      <c r="J374" t="s">
+        <v>11</v>
+      </c>
+      <c r="K374">
+        <v>18</v>
+      </c>
+      <c r="L374">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>17495</v>
+      </c>
+      <c r="C375">
+        <v>2627</v>
+      </c>
+      <c r="D375">
+        <v>18504</v>
+      </c>
+      <c r="E375" s="2">
+        <v>43952</v>
+      </c>
+      <c r="F375">
+        <v>654</v>
+      </c>
+      <c r="G375">
+        <v>146</v>
+      </c>
+      <c r="H375">
+        <v>1211</v>
+      </c>
+      <c r="I375">
+        <v>1052</v>
+      </c>
+      <c r="J375" t="s">
+        <v>14</v>
+      </c>
+      <c r="K375">
+        <v>616</v>
+      </c>
+      <c r="L375">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>53262</v>
+      </c>
+      <c r="C376">
+        <v>6340</v>
+      </c>
+      <c r="D376">
+        <v>82651</v>
+      </c>
+      <c r="E376" s="2">
+        <v>43952</v>
+      </c>
+      <c r="F376">
+        <v>1921</v>
+      </c>
+      <c r="G376">
+        <v>106</v>
+      </c>
+      <c r="H376">
+        <v>2610</v>
+      </c>
+      <c r="I376">
+        <v>3689</v>
+      </c>
+      <c r="J376" t="s">
+        <v>12</v>
+      </c>
+      <c r="K376">
+        <v>1703</v>
+      </c>
+      <c r="L376">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>54377</v>
+      </c>
+      <c r="C377">
+        <v>6053</v>
+      </c>
+      <c r="D377">
+        <v>54377</v>
+      </c>
+      <c r="E377" s="2">
+        <v>43952</v>
+      </c>
+      <c r="F377">
+        <v>1222</v>
+      </c>
+      <c r="G377">
+        <v>112</v>
+      </c>
+      <c r="H377">
+        <v>3473</v>
+      </c>
+      <c r="I377">
+        <v>2587</v>
+      </c>
+      <c r="J377" t="s">
+        <v>13</v>
+      </c>
+      <c r="K377">
+        <v>1246</v>
+      </c>
+      <c r="L377">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>2054</v>
+      </c>
+      <c r="C378">
+        <v>66</v>
+      </c>
+      <c r="D378">
+        <v>2054</v>
+      </c>
+      <c r="E378" s="2">
+        <v>43953</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+      <c r="I378">
+        <v>16</v>
+      </c>
+      <c r="J378" t="s">
+        <v>17</v>
+      </c>
+      <c r="K378">
+        <v>23</v>
+      </c>
+      <c r="L378">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>15653</v>
+      </c>
+      <c r="C379">
+        <v>1136</v>
+      </c>
+      <c r="D379">
+        <v>9821</v>
+      </c>
+      <c r="E379" s="2">
+        <v>43953</v>
+      </c>
+      <c r="F379">
+        <v>847</v>
+      </c>
+      <c r="G379">
+        <v>16</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
+        <v>318</v>
+      </c>
+      <c r="J379" t="s">
+        <v>16</v>
+      </c>
+      <c r="K379">
+        <v>90</v>
+      </c>
+      <c r="L379">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>4590</v>
+      </c>
+      <c r="C380">
+        <v>340</v>
+      </c>
+      <c r="D380">
+        <v>4146</v>
+      </c>
+      <c r="E380" s="2">
+        <v>43953</v>
+      </c>
+      <c r="F380">
+        <v>72</v>
+      </c>
+      <c r="G380">
+        <v>3</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380">
+        <v>220</v>
+      </c>
+      <c r="J380" t="s">
+        <v>18</v>
+      </c>
+      <c r="K380">
+        <v>10</v>
+      </c>
+      <c r="L380">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>11689</v>
+      </c>
+      <c r="C381">
+        <v>365</v>
+      </c>
+      <c r="D381">
+        <v>11689</v>
+      </c>
+      <c r="E381" s="2">
+        <v>43953</v>
+      </c>
+      <c r="F381">
+        <v>302</v>
+      </c>
+      <c r="G381">
+        <v>4</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381">
+        <v>495</v>
+      </c>
+      <c r="J381" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381">
+        <v>15</v>
+      </c>
+      <c r="L381">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>18480</v>
+      </c>
+      <c r="C382">
+        <v>2799</v>
+      </c>
+      <c r="D382">
+        <v>19489</v>
+      </c>
+      <c r="E382" s="2">
+        <v>43953</v>
+      </c>
+      <c r="F382">
+        <v>1322</v>
+      </c>
+      <c r="G382">
+        <v>161</v>
+      </c>
+      <c r="H382">
+        <v>12</v>
+      </c>
+      <c r="I382">
+        <v>985</v>
+      </c>
+      <c r="J382" t="s">
+        <v>14</v>
+      </c>
+      <c r="K382">
+        <v>626</v>
+      </c>
+      <c r="L382">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>56722</v>
+      </c>
+      <c r="C383">
+        <v>6733</v>
+      </c>
+      <c r="D383">
+        <v>88899</v>
+      </c>
+      <c r="E383" s="2">
+        <v>43953</v>
+      </c>
+      <c r="F383">
+        <v>2610</v>
+      </c>
+      <c r="G383">
+        <v>115</v>
+      </c>
+      <c r="H383">
+        <v>6</v>
+      </c>
+      <c r="I383">
+        <v>3460</v>
+      </c>
+      <c r="J383" t="s">
+        <v>12</v>
+      </c>
+      <c r="K383">
+        <v>1803</v>
+      </c>
+      <c r="L383">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>57761</v>
+      </c>
+      <c r="C384">
+        <v>6675</v>
+      </c>
+      <c r="D384">
+        <v>57761</v>
+      </c>
+      <c r="E384" s="2">
+        <v>43953</v>
+      </c>
+      <c r="F384">
+        <v>4044</v>
+      </c>
+      <c r="G384">
+        <v>118</v>
+      </c>
+      <c r="H384">
+        <v>16</v>
+      </c>
+      <c r="I384">
+        <v>3384</v>
+      </c>
+      <c r="J384" t="s">
+        <v>13</v>
+      </c>
+      <c r="K384">
+        <v>1218</v>
+      </c>
+      <c r="L384">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>2227</v>
+      </c>
+      <c r="C385">
+        <v>71</v>
+      </c>
+      <c r="D385">
+        <v>2227</v>
+      </c>
+      <c r="E385" s="2">
+        <v>43955</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+      <c r="I385">
+        <v>42</v>
+      </c>
+      <c r="J385" t="s">
+        <v>17</v>
+      </c>
+      <c r="K385">
+        <v>27</v>
+      </c>
+      <c r="L385">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>15927</v>
+      </c>
+      <c r="C386">
+        <v>1218</v>
+      </c>
+      <c r="D386">
+        <v>10326</v>
+      </c>
+      <c r="E386" s="2">
+        <v>43955</v>
+      </c>
+      <c r="F386">
+        <v>917</v>
+      </c>
+      <c r="G386">
+        <v>21</v>
+      </c>
+      <c r="H386">
+        <v>0</v>
+      </c>
+      <c r="I386">
+        <v>92</v>
+      </c>
+      <c r="J386" t="s">
+        <v>16</v>
+      </c>
+      <c r="K386">
+        <v>83</v>
+      </c>
+      <c r="L386">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12">
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>5069</v>
+      </c>
+      <c r="C387">
+        <v>364</v>
+      </c>
+      <c r="D387">
+        <v>4439</v>
+      </c>
+      <c r="E387" s="2">
+        <v>43955</v>
+      </c>
+      <c r="F387">
+        <v>91</v>
+      </c>
+      <c r="G387">
+        <v>3</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+      <c r="I387">
+        <v>268</v>
+      </c>
+      <c r="J387" t="s">
+        <v>18</v>
+      </c>
+      <c r="K387">
+        <v>10</v>
+      </c>
+      <c r="L387">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>12704</v>
+      </c>
+      <c r="C388">
+        <v>415</v>
+      </c>
+      <c r="D388">
+        <v>12704</v>
+      </c>
+      <c r="E388" s="2">
+        <v>43955</v>
+      </c>
+      <c r="F388">
+        <v>339</v>
+      </c>
+      <c r="G388">
+        <v>4</v>
+      </c>
+      <c r="H388">
+        <v>2</v>
+      </c>
+      <c r="I388">
+        <v>415</v>
+      </c>
+      <c r="J388" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388">
+        <v>16</v>
+      </c>
+      <c r="L388">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>20900</v>
+      </c>
+      <c r="C389">
+        <v>3129</v>
+      </c>
+      <c r="D389">
+        <v>21909</v>
+      </c>
+      <c r="E389" s="2">
+        <v>43955</v>
+      </c>
+      <c r="F389">
+        <v>1535</v>
+      </c>
+      <c r="G389">
+        <v>180</v>
+      </c>
+      <c r="H389">
+        <v>9</v>
+      </c>
+      <c r="I389">
+        <v>1338</v>
+      </c>
+      <c r="J389" t="s">
+        <v>14</v>
+      </c>
+      <c r="K389">
+        <v>603</v>
+      </c>
+      <c r="L389">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>67908</v>
+      </c>
+      <c r="C390">
+        <v>7524</v>
+      </c>
+      <c r="D390">
+        <v>96854</v>
+      </c>
+      <c r="E390" s="2">
+        <v>43955</v>
+      </c>
+      <c r="F390">
+        <v>2775</v>
+      </c>
+      <c r="G390">
+        <v>124</v>
+      </c>
+      <c r="H390">
+        <v>7</v>
+      </c>
+      <c r="I390">
+        <v>6021</v>
+      </c>
+      <c r="J390" t="s">
+        <v>12</v>
+      </c>
+      <c r="K390">
+        <v>1958</v>
+      </c>
+      <c r="L390">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>64052</v>
+      </c>
+      <c r="C391">
+        <v>7465</v>
+      </c>
+      <c r="D391">
+        <v>64052</v>
+      </c>
+      <c r="E391" s="2">
+        <v>43955</v>
+      </c>
+      <c r="F391">
+        <v>4638</v>
+      </c>
+      <c r="G391">
+        <v>130</v>
+      </c>
+      <c r="H391">
+        <v>17</v>
+      </c>
+      <c r="I391">
+        <v>3032</v>
+      </c>
+      <c r="J391" t="s">
+        <v>13</v>
+      </c>
+      <c r="K391">
+        <v>1142</v>
+      </c>
+      <c r="L391">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>2281</v>
+      </c>
+      <c r="C392">
+        <v>71</v>
+      </c>
+      <c r="D392">
+        <v>2281</v>
+      </c>
+      <c r="E392" s="2">
+        <v>43956</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+      <c r="I392">
+        <v>54</v>
+      </c>
+      <c r="J392" t="s">
+        <v>17</v>
+      </c>
+      <c r="K392">
+        <v>22</v>
+      </c>
+      <c r="L392">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12">
+      <c r="A393" s="1">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>16110</v>
+      </c>
+      <c r="C393">
+        <v>1321</v>
+      </c>
+      <c r="D393">
+        <v>10633</v>
+      </c>
+      <c r="E393" s="2">
+        <v>43956</v>
+      </c>
+      <c r="F393">
+        <v>1014</v>
+      </c>
+      <c r="G393">
+        <v>21</v>
+      </c>
+      <c r="H393">
+        <v>2</v>
+      </c>
+      <c r="I393">
+        <v>183</v>
+      </c>
+      <c r="J393" t="s">
+        <v>16</v>
+      </c>
+      <c r="K393">
+        <v>89</v>
+      </c>
+      <c r="L393">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>5160</v>
+      </c>
+      <c r="C394">
+        <v>372</v>
+      </c>
+      <c r="D394">
+        <v>4581</v>
+      </c>
+      <c r="E394" s="2">
+        <v>43956</v>
+      </c>
+      <c r="F394">
+        <v>80</v>
+      </c>
+      <c r="G394">
+        <v>3</v>
+      </c>
+      <c r="H394">
+        <v>0</v>
+      </c>
+      <c r="I394">
+        <v>91</v>
+      </c>
+      <c r="J394" t="s">
+        <v>18</v>
+      </c>
+      <c r="K394">
+        <v>10</v>
+      </c>
+      <c r="L394">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12">
+      <c r="A395" s="1">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>13697</v>
+      </c>
+      <c r="C395">
+        <v>464</v>
+      </c>
+      <c r="D395">
+        <v>13697</v>
+      </c>
+      <c r="E395" s="2">
+        <v>43956</v>
+      </c>
+      <c r="F395">
+        <v>383</v>
+      </c>
+      <c r="G395">
+        <v>4</v>
+      </c>
+      <c r="H395">
+        <v>4</v>
+      </c>
+      <c r="I395">
+        <v>993</v>
+      </c>
+      <c r="J395" t="s">
+        <v>11</v>
+      </c>
+      <c r="K395">
+        <v>21</v>
+      </c>
+      <c r="L395">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12">
+      <c r="A396" s="1">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>21683</v>
+      </c>
+      <c r="C396">
+        <v>3288</v>
+      </c>
+      <c r="D396">
+        <v>22692</v>
+      </c>
+      <c r="E396" s="2">
+        <v>43956</v>
+      </c>
+      <c r="F396">
+        <v>1578</v>
+      </c>
+      <c r="G396">
+        <v>185</v>
+      </c>
+      <c r="H396">
+        <v>14</v>
+      </c>
+      <c r="I396">
+        <v>783</v>
+      </c>
+      <c r="J396" t="s">
+        <v>14</v>
+      </c>
+      <c r="K396">
+        <v>669</v>
+      </c>
+      <c r="L396">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12">
+      <c r="A397" s="1">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>74533</v>
+      </c>
+      <c r="C397">
+        <v>8103</v>
+      </c>
+      <c r="D397">
+        <v>101897</v>
+      </c>
+      <c r="E397" s="2">
+        <v>43956</v>
+      </c>
+      <c r="F397">
+        <v>2779</v>
+      </c>
+      <c r="G397">
+        <v>136</v>
+      </c>
+      <c r="H397">
+        <v>7</v>
+      </c>
+      <c r="I397">
+        <v>6625</v>
+      </c>
+      <c r="J397" t="s">
+        <v>12</v>
+      </c>
+      <c r="K397">
+        <v>2472</v>
+      </c>
+      <c r="L397">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12">
+      <c r="A398" s="1">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>66623</v>
+      </c>
+      <c r="C398">
+        <v>7882</v>
+      </c>
+      <c r="D398">
+        <v>66623</v>
+      </c>
+      <c r="E398" s="2">
+        <v>43956</v>
+      </c>
+      <c r="F398">
+        <v>4994</v>
+      </c>
+      <c r="G398">
+        <v>137</v>
+      </c>
+      <c r="H398">
+        <v>16</v>
+      </c>
+      <c r="I398">
+        <v>2571</v>
+      </c>
+      <c r="J398" t="s">
+        <v>13</v>
+      </c>
+      <c r="K398">
+        <v>1122</v>
+      </c>
+      <c r="L398">
+        <v>2571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
